--- a/ig/main/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/main/StructureDefinition-ror-organization-period.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-organization-period</t>
+    <t>https://interop.esante.gouv.fr/fhir/ig/ror/StructureDefinition/ror-organization-period</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-03-25T16:52:52.2657+00:00</t>
+    <t>2023-03-17T09:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR</t>
+    <t>Extension créée dans le cadre du ROR pour définir les période d'ouverture et de fermeture de l'organisation interne</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -243,7 +243,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
+    <t>*</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -253,9 +253,6 @@
     <t>The date range that this organization should be considered available.</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
@@ -263,6 +260,9 @@
     <t>Extension.id</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
   </si>
@@ -410,7 +410,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J201-TypeFermeture-ROR/FHIR/JDV-J201-TypeFermeture-ROR/</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J201-TypeFermeture-ROR/FHIR/JDV-J201-TypeFermeture-ROR</t>
   </si>
   <si>
     <t>Extension.extension:reopeningDate</t>
@@ -796,7 +796,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="91.60546875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="90.98828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1013,10 +1013,10 @@
         <v>75</v>
       </c>
       <c r="AH2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI2" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="AI2" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>74</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1041,7 +1041,7 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>74</v>
@@ -1116,7 +1116,7 @@
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>74</v>
@@ -1144,7 +1144,7 @@
         <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>74</v>
@@ -1221,10 +1221,10 @@
         <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>97</v>
@@ -1251,7 +1251,7 @@
         <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
@@ -1326,10 +1326,10 @@
         <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI5" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>97</v>
@@ -1354,7 +1354,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -1429,7 +1429,7 @@
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>74</v>
@@ -1532,10 +1532,10 @@
         <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI7" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>97</v>
@@ -1557,10 +1557,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>74</v>
@@ -1634,10 +1634,10 @@
         <v>112</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>74</v>
@@ -1665,7 +1665,7 @@
         <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>74</v>
@@ -1740,10 +1740,10 @@
         <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>119</v>
@@ -1770,7 +1770,7 @@
         <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>74</v>
@@ -1845,10 +1845,10 @@
         <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI10" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>97</v>
@@ -1873,7 +1873,7 @@
         <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>74</v>
@@ -1948,7 +1948,7 @@
         <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>74</v>
@@ -2051,10 +2051,10 @@
         <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI12" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>97</v>
@@ -2076,10 +2076,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>74</v>
@@ -2153,10 +2153,10 @@
         <v>112</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>74</v>
@@ -2184,7 +2184,7 @@
         <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>74</v>
@@ -2257,10 +2257,10 @@
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>119</v>
@@ -2287,7 +2287,7 @@
         <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>74</v>
@@ -2362,10 +2362,10 @@
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI15" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>97</v>
@@ -2390,7 +2390,7 @@
         <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>74</v>
@@ -2465,7 +2465,7 @@
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>74</v>
@@ -2568,10 +2568,10 @@
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI17" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>97</v>
@@ -2593,10 +2593,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>74</v>
@@ -2670,10 +2670,10 @@
         <v>112</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>74</v>
@@ -2701,7 +2701,7 @@
         <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>74</v>
@@ -2776,10 +2776,10 @@
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>119</v>
@@ -2806,7 +2806,7 @@
         <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
@@ -2881,10 +2881,10 @@
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI20" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>97</v>
@@ -2909,7 +2909,7 @@
         <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
@@ -2984,7 +2984,7 @@
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>74</v>
@@ -3087,10 +3087,10 @@
         <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI22" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>97</v>
@@ -3112,10 +3112,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>74</v>
@@ -3189,10 +3189,10 @@
         <v>112</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>74</v>
@@ -3220,7 +3220,7 @@
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -3293,10 +3293,10 @@
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>119</v>
@@ -3318,10 +3318,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -3395,10 +3395,10 @@
         <v>112</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>74</v>
@@ -3501,10 +3501,10 @@
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>119</v>

--- a/ig/main/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/main/StructureDefinition-ror-organization-period.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T09:52:06+00:00</t>
+    <t>2023-03-17T11:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/main/StructureDefinition-ror-organization-period.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T11:28:56+00:00</t>
+    <t>2023-03-19T15:24:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/main/StructureDefinition-ror-organization-period.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:24:51+00:00</t>
+    <t>2023-03-19T15:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/main/StructureDefinition-ror-organization-period.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:25:26+00:00</t>
+    <t>2023-03-19T15:25:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/main/StructureDefinition-ror-organization-period.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:25:59+00:00</t>
+    <t>2023-03-24T16:48:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/main/StructureDefinition-ror-organization-period.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-24T16:48:26+00:00</t>
+    <t>2023-04-06T16:24:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/main/StructureDefinition-ror-organization-period.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T16:24:50+00:00</t>
+    <t>2023-04-07T06:20:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/main/StructureDefinition-ror-organization-period.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T06:20:05+00:00</t>
+    <t>2023-04-07T09:27:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/main/StructureDefinition-ror-organization-period.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T09:27:55+00:00</t>
+    <t>2023-04-07T09:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
